--- a/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/lswe_sum-raw-ss-lookup-tabbed-age.xlsx
+++ b/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/lswe_sum-raw-ss-lookup-tabbed-age.xlsx
@@ -359,7 +359,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -379,151 +379,151 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>119</v>
@@ -531,55 +531,55 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>130</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>130</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>130</v>
@@ -603,7 +603,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>130</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>130</v>
@@ -619,7 +619,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -627,7 +627,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -659,7 +659,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -675,9 +675,17 @@
     </row>
     <row r="39">
       <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>130</v>
       </c>
     </row>
@@ -688,7 +696,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -708,103 +716,103 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>99</v>
@@ -812,7 +820,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>101</v>
@@ -820,7 +828,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>103</v>
@@ -828,119 +836,119 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>130</v>
@@ -948,7 +956,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -956,7 +964,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -964,7 +972,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -972,7 +980,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -980,7 +988,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -988,7 +996,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -996,7 +1004,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -1004,9 +1012,17 @@
     </row>
     <row r="39">
       <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>130</v>
       </c>
     </row>
@@ -1017,7 +1033,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1037,271 +1053,271 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -1309,7 +1325,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -1317,7 +1333,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -1325,7 +1341,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -1333,9 +1349,17 @@
     </row>
     <row r="39">
       <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>130</v>
       </c>
     </row>
@@ -1346,7 +1370,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1366,305 +1390,313 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>130</v>
       </c>
     </row>
@@ -1675,7 +1707,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1695,306 +1727,314 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B39">
-        <v>125</v>
+      <c r="B40">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2004,7 +2044,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2024,306 +2064,314 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>119</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2333,7 +2381,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2353,306 +2401,314 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B39">
-        <v>116</v>
+      <c r="B40">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2662,7 +2718,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2682,223 +2738,223 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>78</v>
@@ -2906,7 +2962,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>80</v>
@@ -2914,7 +2970,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>82</v>
@@ -2922,7 +2978,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>84</v>
@@ -2930,7 +2986,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>86</v>
@@ -2938,7 +2994,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>88</v>
@@ -2946,7 +3002,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>90</v>
@@ -2954,7 +3010,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>93</v>
@@ -2962,7 +3018,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>96</v>
@@ -2970,18 +3026,26 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B39">
-        <v>107</v>
+      <c r="B40">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2991,7 +3055,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3011,215 +3075,215 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>66</v>
@@ -3227,7 +3291,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>67</v>
@@ -3235,7 +3299,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>69</v>
@@ -3243,74 +3307,82 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>101</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B39">
-        <v>101</v>
+      <c r="B40">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/lswe_sum-raw-ss-lookup-tabbed-age.xlsx
+++ b/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/lswe_sum-raw-ss-lookup-tabbed-age.xlsx
@@ -382,7 +382,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3">
@@ -390,7 +390,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -398,7 +398,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
@@ -414,7 +414,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
@@ -422,7 +422,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
@@ -430,7 +430,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9">
@@ -438,7 +438,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10">
@@ -446,7 +446,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11">
@@ -454,7 +454,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12">
@@ -462,7 +462,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13">
@@ -470,7 +470,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14">
@@ -478,7 +478,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15">
@@ -486,7 +486,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16">
@@ -494,7 +494,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17">
@@ -502,7 +502,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18">
@@ -510,7 +510,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19">
@@ -518,7 +518,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20">
@@ -526,7 +526,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21">
@@ -534,7 +534,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22">
@@ -542,7 +542,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23">
@@ -550,7 +550,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24">
@@ -558,7 +558,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25">
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3">
@@ -727,7 +727,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -735,7 +735,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -743,7 +743,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -751,7 +751,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
@@ -759,7 +759,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
@@ -767,7 +767,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
@@ -775,7 +775,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10">
@@ -783,7 +783,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11">
@@ -791,7 +791,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12">
@@ -799,7 +799,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13">
@@ -807,7 +807,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14">
@@ -815,7 +815,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15">
@@ -823,7 +823,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16">
@@ -831,7 +831,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17">
@@ -839,7 +839,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18">
@@ -847,7 +847,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19">
@@ -855,7 +855,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20">
@@ -863,7 +863,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21">
@@ -871,7 +871,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22">
@@ -879,7 +879,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23">
@@ -887,7 +887,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24">
@@ -927,7 +927,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29">
@@ -935,7 +935,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30">
@@ -943,7 +943,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31">
@@ -1064,7 +1064,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
@@ -1072,7 +1072,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -1080,7 +1080,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6">
@@ -1088,7 +1088,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
@@ -1096,7 +1096,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
@@ -1104,7 +1104,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
@@ -1112,7 +1112,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10">
@@ -1120,7 +1120,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11">
@@ -1128,7 +1128,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12">
@@ -1136,7 +1136,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13">
@@ -1144,7 +1144,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14">
@@ -1152,7 +1152,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15">
@@ -1160,7 +1160,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16">
@@ -1168,7 +1168,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17">
@@ -1176,7 +1176,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18">
@@ -1240,7 +1240,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26">
@@ -1248,7 +1248,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27">
@@ -1256,7 +1256,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28">
@@ -1264,7 +1264,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29">
@@ -1272,7 +1272,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30">
@@ -1280,7 +1280,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31">
@@ -1288,7 +1288,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32">
@@ -1296,7 +1296,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33">
@@ -1304,7 +1304,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34">
@@ -1312,7 +1312,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35">
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3">
@@ -1401,7 +1401,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -1409,7 +1409,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5">
@@ -1417,7 +1417,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
@@ -1425,7 +1425,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7">
@@ -1433,7 +1433,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
@@ -1441,7 +1441,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
@@ -1449,7 +1449,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
@@ -1457,7 +1457,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
@@ -1465,7 +1465,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12">
@@ -1473,7 +1473,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
@@ -1481,7 +1481,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14">
@@ -1489,7 +1489,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15">
@@ -1497,7 +1497,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16">
@@ -1545,7 +1545,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22">
@@ -1553,7 +1553,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23">
@@ -1561,7 +1561,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24">
@@ -1577,7 +1577,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26">
@@ -1585,7 +1585,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27">
@@ -1593,7 +1593,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28">
@@ -1601,7 +1601,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29">
@@ -1609,7 +1609,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30">
@@ -1617,7 +1617,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31">
@@ -1633,7 +1633,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33">
@@ -1641,7 +1641,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34">
@@ -1649,7 +1649,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35">
@@ -1665,7 +1665,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37">
@@ -1730,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -1738,7 +1738,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
@@ -1746,7 +1746,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5">
@@ -1754,7 +1754,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
@@ -1762,7 +1762,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7">
@@ -1770,7 +1770,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8">
@@ -1778,7 +1778,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9">
@@ -1786,7 +1786,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
@@ -1794,7 +1794,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -1802,7 +1802,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
@@ -1810,7 +1810,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13">
@@ -1818,7 +1818,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
@@ -1826,7 +1826,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15">
@@ -1834,7 +1834,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
@@ -1842,7 +1842,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18">
@@ -1858,7 +1858,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19">
@@ -1866,7 +1866,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20">
@@ -1874,7 +1874,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21">
@@ -1882,7 +1882,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22">
@@ -1890,7 +1890,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23">
@@ -1898,7 +1898,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24">
@@ -1906,7 +1906,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25">
@@ -1914,7 +1914,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26">
@@ -1922,7 +1922,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27">
@@ -1930,7 +1930,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28">
@@ -1938,7 +1938,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29">
@@ -1946,7 +1946,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30">
@@ -1954,7 +1954,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31">
@@ -1962,7 +1962,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32">
@@ -1970,7 +1970,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33">
@@ -2026,7 +2026,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40">
@@ -2034,7 +2034,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -2075,7 +2075,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
@@ -2083,7 +2083,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
@@ -2091,7 +2091,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
@@ -2099,7 +2099,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
@@ -2107,7 +2107,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
@@ -2115,7 +2115,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -2123,7 +2123,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
@@ -2131,7 +2131,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
@@ -2139,7 +2139,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
@@ -2147,7 +2147,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13">
@@ -2155,7 +2155,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14">
@@ -2163,7 +2163,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15">
@@ -2171,7 +2171,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16">
@@ -2179,7 +2179,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17">
@@ -2187,7 +2187,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18">
@@ -2195,7 +2195,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19">
@@ -2203,7 +2203,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20">
@@ -2211,7 +2211,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21">
@@ -2219,7 +2219,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
@@ -2227,7 +2227,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23">
@@ -2235,7 +2235,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24">
@@ -2243,7 +2243,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25">
@@ -2251,7 +2251,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26">
@@ -2259,7 +2259,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27">
@@ -2267,7 +2267,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28">
@@ -2275,7 +2275,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29">
@@ -2307,7 +2307,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33">
@@ -2339,7 +2339,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37">
@@ -2347,7 +2347,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38">
@@ -2355,7 +2355,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39">
@@ -2363,7 +2363,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40">
@@ -2371,7 +2371,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2404,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -2412,7 +2412,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
@@ -2420,7 +2420,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
@@ -2428,7 +2428,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
@@ -2436,7 +2436,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7">
@@ -2444,7 +2444,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
@@ -2452,7 +2452,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9">
@@ -2460,7 +2460,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10">
@@ -2468,7 +2468,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11">
@@ -2476,7 +2476,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
@@ -2484,7 +2484,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13">
@@ -2492,7 +2492,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14">
@@ -2500,7 +2500,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15">
@@ -2508,7 +2508,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16">
@@ -2516,7 +2516,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17">
@@ -2524,7 +2524,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18">
@@ -2532,7 +2532,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19">
@@ -2540,7 +2540,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20">
@@ -2548,7 +2548,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21">
@@ -2556,7 +2556,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22">
@@ -2564,7 +2564,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23">
@@ -2572,7 +2572,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24">
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25">
@@ -2604,7 +2604,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28">
@@ -2636,7 +2636,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32">
@@ -2644,7 +2644,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33">
@@ -2652,7 +2652,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34">
@@ -2660,7 +2660,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35">
@@ -2668,7 +2668,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36">
@@ -2676,7 +2676,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37">
@@ -2684,7 +2684,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38">
@@ -2692,7 +2692,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39">
@@ -2700,7 +2700,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40">
@@ -2708,7 +2708,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2741,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -2749,7 +2749,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
@@ -2757,7 +2757,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
@@ -2765,7 +2765,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
@@ -2773,7 +2773,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
@@ -2781,7 +2781,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
@@ -2789,7 +2789,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
@@ -2797,7 +2797,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
@@ -2805,7 +2805,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11">
@@ -2813,7 +2813,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
@@ -2821,7 +2821,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13">
@@ -2829,7 +2829,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14">
@@ -2837,7 +2837,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15">
@@ -2845,7 +2845,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">
@@ -2853,7 +2853,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
@@ -2861,7 +2861,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18">
@@ -2869,7 +2869,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19">
@@ -2877,7 +2877,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20">
@@ -2885,7 +2885,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21">
@@ -2893,7 +2893,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22">
@@ -2901,7 +2901,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23">
@@ -2909,7 +2909,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24">
@@ -2917,7 +2917,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25">
@@ -2949,7 +2949,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29">
@@ -2957,7 +2957,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30">
@@ -2965,7 +2965,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31">
@@ -2973,7 +2973,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32">
@@ -2981,7 +2981,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33">
@@ -2989,7 +2989,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34">
@@ -2997,7 +2997,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35">
@@ -3005,7 +3005,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36">
@@ -3013,7 +3013,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37">
@@ -3021,7 +3021,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38">
@@ -3029,7 +3029,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39">
@@ -3037,7 +3037,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40">
@@ -3045,7 +3045,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3078,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -3086,7 +3086,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
@@ -3094,7 +3094,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5">
@@ -3102,7 +3102,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6">
@@ -3110,7 +3110,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
@@ -3118,7 +3118,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8">
@@ -3126,7 +3126,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
@@ -3134,7 +3134,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10">
@@ -3142,7 +3142,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11">
@@ -3150,7 +3150,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12">
@@ -3158,7 +3158,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
@@ -3166,7 +3166,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14">
@@ -3174,7 +3174,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
@@ -3182,7 +3182,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16">
@@ -3190,7 +3190,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17">
@@ -3198,7 +3198,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18">
@@ -3206,7 +3206,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19">
@@ -3214,7 +3214,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20">
@@ -3222,7 +3222,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21">
@@ -3230,7 +3230,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22">
@@ -3238,7 +3238,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23">
@@ -3246,7 +3246,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24">
@@ -3254,7 +3254,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25">
@@ -3286,7 +3286,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29">
@@ -3294,7 +3294,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30">
@@ -3302,7 +3302,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31">
@@ -3310,7 +3310,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32">
@@ -3318,7 +3318,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33">
@@ -3326,7 +3326,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34">
@@ -3334,7 +3334,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35">
@@ -3342,7 +3342,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36">
@@ -3350,7 +3350,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37">
@@ -3358,7 +3358,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38">
@@ -3366,7 +3366,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>115</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39">
@@ -3374,7 +3374,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40">
@@ -3382,7 +3382,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
